--- a/ChartsWithImpact/Q1.xlsx
+++ b/ChartsWithImpact/Q1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Fry\Dropbox\ASW Files\Data Visualization\_Current Files\Ch 3 Design - Fry\DATA_MODELFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d30fda2a4b6af84/Home/GitHub/DataViz/ChartsWithImpact/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_D02AA673CC5645907A430C46EDCBC04C2ED4152D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94ABCBE8-876C-482A-9820-DCA5A6E15084}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9090"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -53,16 +54,16 @@
     <t>Norma Lane</t>
   </si>
   <si>
-    <t>Manger</t>
-  </si>
-  <si>
     <t>Number of Accounts Managed</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -394,29 +395,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -424,7 +425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -432,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -440,7 +441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -448,7 +449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -456,7 +457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -464,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -472,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -480,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -489,7 +490,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
     <sortCondition ref="A2:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
